--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.90892</v>
+        <v>4.6982685</v>
       </c>
       <c r="H2">
-        <v>13.81784</v>
+        <v>9.396537</v>
       </c>
       <c r="I2">
-        <v>0.2006971010378393</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="J2">
-        <v>0.1527467613647123</v>
+        <v>0.108319921689495</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0966175</v>
+        <v>1.4267785</v>
       </c>
       <c r="N2">
-        <v>2.193235</v>
+        <v>2.853557</v>
       </c>
       <c r="O2">
-        <v>0.134463227951262</v>
+        <v>0.2116269459686076</v>
       </c>
       <c r="P2">
-        <v>0.09704730369927428</v>
+        <v>0.1575007669281379</v>
       </c>
       <c r="Q2">
-        <v>7.5764425781</v>
+        <v>6.70338848302725</v>
       </c>
       <c r="R2">
-        <v>30.3057703124</v>
+        <v>26.813553932109</v>
       </c>
       <c r="S2">
-        <v>0.02698638004600844</v>
+        <v>0.03065252861841085</v>
       </c>
       <c r="T2">
-        <v>0.01482366133924181</v>
+        <v>0.0170604707396913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.90892</v>
+        <v>4.6982685</v>
       </c>
       <c r="H3">
-        <v>13.81784</v>
+        <v>9.396537</v>
       </c>
       <c r="I3">
-        <v>0.2006971010378393</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="J3">
-        <v>0.1527467613647123</v>
+        <v>0.108319921689495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7874356666666668</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N3">
         <v>2.362307</v>
       </c>
       <c r="O3">
-        <v>0.09655248210424687</v>
+        <v>0.1167964090315499</v>
       </c>
       <c r="P3">
-        <v>0.104528481836156</v>
+        <v>0.1303864489897026</v>
       </c>
       <c r="Q3">
-        <v>5.440330026146667</v>
+        <v>3.6995841884765</v>
       </c>
       <c r="R3">
-        <v>32.64198015688</v>
+        <v>22.197505130859</v>
       </c>
       <c r="S3">
-        <v>0.01937780325633021</v>
+        <v>0.01691705776871282</v>
       </c>
       <c r="T3">
-        <v>0.01596638707084298</v>
+        <v>0.01412344994393592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.90892</v>
+        <v>4.6982685</v>
       </c>
       <c r="H4">
-        <v>13.81784</v>
+        <v>9.396537</v>
       </c>
       <c r="I4">
-        <v>0.2006971010378393</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="J4">
-        <v>0.1527467613647123</v>
+        <v>0.108319921689495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.449806</v>
+        <v>1.386254666666667</v>
       </c>
       <c r="N4">
-        <v>4.349418</v>
+        <v>4.158764</v>
       </c>
       <c r="O4">
-        <v>0.177769910349878</v>
+        <v>0.2056162476806293</v>
       </c>
       <c r="P4">
-        <v>0.1924551129090545</v>
+        <v>0.2295410673321509</v>
       </c>
       <c r="Q4">
-        <v>10.01659366952</v>
+        <v>6.512996633378</v>
       </c>
       <c r="R4">
-        <v>60.09956201712</v>
+        <v>39.077979800268</v>
       </c>
       <c r="S4">
-        <v>0.03567790565897709</v>
+        <v>0.0297819253951511</v>
       </c>
       <c r="T4">
-        <v>0.02939689520493811</v>
+        <v>0.02486387043794168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.90892</v>
+        <v>4.6982685</v>
       </c>
       <c r="H5">
-        <v>13.81784</v>
+        <v>9.396537</v>
       </c>
       <c r="I5">
-        <v>0.2006971010378393</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="J5">
-        <v>0.1527467613647123</v>
+        <v>0.108319921689495</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7702925</v>
+        <v>0.6813404999999999</v>
       </c>
       <c r="N5">
-        <v>1.540585</v>
+        <v>1.362681</v>
       </c>
       <c r="O5">
-        <v>0.09445044969339579</v>
+        <v>0.1010598415799818</v>
       </c>
       <c r="P5">
-        <v>0.06816853659983835</v>
+        <v>0.07521255141509417</v>
       </c>
       <c r="Q5">
-        <v>5.321889259100001</v>
+        <v>3.20112060892425</v>
       </c>
       <c r="R5">
-        <v>21.2875570364</v>
+        <v>12.804482435697</v>
       </c>
       <c r="S5">
-        <v>0.01895593144518481</v>
+        <v>0.01463773751506093</v>
       </c>
       <c r="T5">
-        <v>0.01041252319259716</v>
+        <v>0.008147017679350117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.90892</v>
+        <v>4.6982685</v>
       </c>
       <c r="H6">
-        <v>13.81784</v>
+        <v>9.396537</v>
       </c>
       <c r="I6">
-        <v>0.2006971010378393</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="J6">
-        <v>0.1527467613647123</v>
+        <v>0.108319921689495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4834026666666666</v>
+        <v>1.598499</v>
       </c>
       <c r="N6">
-        <v>1.450208</v>
+        <v>4.795497</v>
       </c>
       <c r="O6">
-        <v>0.05927306737330738</v>
+        <v>0.23709739213471</v>
       </c>
       <c r="P6">
-        <v>0.06416949218990083</v>
+        <v>0.2646852525818074</v>
       </c>
       <c r="Q6">
-        <v>3.339790351786667</v>
+        <v>7.510177498981501</v>
       </c>
       <c r="R6">
-        <v>20.03874211072</v>
+        <v>45.061064993889</v>
       </c>
       <c r="S6">
-        <v>0.01189593279144333</v>
+        <v>0.03434172602404727</v>
       </c>
       <c r="T6">
-        <v>0.009801682110425551</v>
+        <v>0.02867068583202559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.90892</v>
+        <v>4.6982685</v>
       </c>
       <c r="H7">
-        <v>13.81784</v>
+        <v>9.396537</v>
       </c>
       <c r="I7">
-        <v>0.2006971010378393</v>
+        <v>0.1448422764790916</v>
       </c>
       <c r="J7">
-        <v>0.1527467613647123</v>
+        <v>0.108319921689495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.567965333333333</v>
+        <v>0.8616426666666667</v>
       </c>
       <c r="N7">
-        <v>10.703896</v>
+        <v>2.584928</v>
       </c>
       <c r="O7">
-        <v>0.43749086252791</v>
+        <v>0.1278031636045214</v>
       </c>
       <c r="P7">
-        <v>0.4736310727657762</v>
+        <v>0.142673912753107</v>
       </c>
       <c r="Q7">
-        <v>24.65078705077334</v>
+        <v>4.048228599056</v>
       </c>
       <c r="R7">
-        <v>147.90472230464</v>
+        <v>24.289371594336</v>
       </c>
       <c r="S7">
-        <v>0.08780314783989543</v>
+        <v>0.01851130115770867</v>
       </c>
       <c r="T7">
-        <v>0.07234561244666669</v>
+        <v>0.01545442705655039</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>15.833826</v>
       </c>
       <c r="I8">
-        <v>0.1533188485097317</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="J8">
-        <v>0.1750321064299758</v>
+        <v>0.1825266896054461</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.0966175</v>
+        <v>1.4267785</v>
       </c>
       <c r="N8">
-        <v>2.193235</v>
+        <v>2.853557</v>
       </c>
       <c r="O8">
-        <v>0.134463227951262</v>
+        <v>0.2116269459686076</v>
       </c>
       <c r="P8">
-        <v>0.09704730369927428</v>
+        <v>0.1575007669281379</v>
       </c>
       <c r="Q8">
-        <v>5.787883561185001</v>
+        <v>7.530454169847</v>
       </c>
       <c r="R8">
-        <v>34.72730136711</v>
+        <v>45.18272501908201</v>
       </c>
       <c r="S8">
-        <v>0.02061574727638906</v>
+        <v>0.03443444498783171</v>
       </c>
       <c r="T8">
-        <v>0.01698639398983356</v>
+        <v>0.02874809359771194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>15.833826</v>
       </c>
       <c r="I9">
-        <v>0.1533188485097317</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="J9">
-        <v>0.1750321064299758</v>
+        <v>0.1825266896054461</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7874356666666668</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N9">
         <v>2.362307</v>
       </c>
       <c r="O9">
-        <v>0.09655248210424687</v>
+        <v>0.1167964090315499</v>
       </c>
       <c r="P9">
-        <v>0.104528481836156</v>
+        <v>0.1303864489897026</v>
       </c>
       <c r="Q9">
-        <v>4.156039777398001</v>
+        <v>4.156039777398</v>
       </c>
       <c r="R9">
-        <v>37.40435799658201</v>
+        <v>37.404357996582</v>
       </c>
       <c r="S9">
-        <v>0.01480331537697961</v>
+        <v>0.01900428843390191</v>
       </c>
       <c r="T9">
-        <v>0.01829584035770985</v>
+        <v>0.02379900690349977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>15.833826</v>
       </c>
       <c r="I10">
-        <v>0.1533188485097317</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="J10">
-        <v>0.1750321064299758</v>
+        <v>0.1825266896054461</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.449806</v>
+        <v>1.386254666666667</v>
       </c>
       <c r="N10">
-        <v>4.349418</v>
+        <v>4.158764</v>
       </c>
       <c r="O10">
-        <v>0.177769910349878</v>
+        <v>0.2056162476806293</v>
       </c>
       <c r="P10">
-        <v>0.1924551129090545</v>
+        <v>0.2295410673321509</v>
       </c>
       <c r="Q10">
-        <v>7.651991979252</v>
+        <v>7.316571727896</v>
       </c>
       <c r="R10">
-        <v>68.867927813268</v>
+        <v>65.849145551064</v>
       </c>
       <c r="S10">
-        <v>0.02725547795452153</v>
+        <v>0.03345642652903609</v>
       </c>
       <c r="T10">
-        <v>0.03368582380569064</v>
+        <v>0.04189737114863831</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>15.833826</v>
       </c>
       <c r="I11">
-        <v>0.1533188485097317</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="J11">
-        <v>0.1750321064299758</v>
+        <v>0.1825266896054461</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7702925</v>
+        <v>0.6813404999999999</v>
       </c>
       <c r="N11">
-        <v>1.540585</v>
+        <v>1.362681</v>
       </c>
       <c r="O11">
-        <v>0.09445044969339579</v>
+        <v>0.1010598415799818</v>
       </c>
       <c r="P11">
-        <v>0.06816853659983835</v>
+        <v>0.07521255141509417</v>
       </c>
       <c r="Q11">
-        <v>4.065559138035001</v>
+        <v>3.596075641251</v>
       </c>
       <c r="R11">
-        <v>24.39335482821</v>
+        <v>21.576453847506</v>
       </c>
       <c r="S11">
-        <v>0.01448103418821779</v>
+        <v>0.0164437450979474</v>
       </c>
       <c r="T11">
-        <v>0.01193168255331861</v>
+        <v>0.01372829802657655</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>15.833826</v>
       </c>
       <c r="I12">
-        <v>0.1533188485097317</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="J12">
-        <v>0.1750321064299758</v>
+        <v>0.1825266896054461</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4834026666666666</v>
+        <v>1.598499</v>
       </c>
       <c r="N12">
-        <v>1.450208</v>
+        <v>4.795497</v>
       </c>
       <c r="O12">
-        <v>0.05927306737330738</v>
+        <v>0.23709739213471</v>
       </c>
       <c r="P12">
-        <v>0.06416949218990083</v>
+        <v>0.2646852525818074</v>
       </c>
       <c r="Q12">
-        <v>2.551371237312</v>
+        <v>8.436785009058001</v>
       </c>
       <c r="R12">
-        <v>22.962341135808</v>
+        <v>75.93106508152201</v>
       </c>
       <c r="S12">
-        <v>0.009087678437315236</v>
+        <v>0.03857881645861919</v>
       </c>
       <c r="T12">
-        <v>0.01123172138654022</v>
+        <v>0.04831212294113867</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>15.833826</v>
       </c>
       <c r="I13">
-        <v>0.1533188485097317</v>
+        <v>0.1627129514638446</v>
       </c>
       <c r="J13">
-        <v>0.1750321064299758</v>
+        <v>0.1825266896054461</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.567965333333333</v>
+        <v>0.8616426666666667</v>
       </c>
       <c r="N13">
-        <v>10.703896</v>
+        <v>2.584928</v>
       </c>
       <c r="O13">
-        <v>0.43749086252791</v>
+        <v>0.1278031636045214</v>
       </c>
       <c r="P13">
-        <v>0.4736310727657762</v>
+        <v>0.142673912753107</v>
       </c>
       <c r="Q13">
-        <v>18.831514087344</v>
+        <v>4.547700019392001</v>
       </c>
       <c r="R13">
-        <v>169.483626786096</v>
+        <v>40.92930017452801</v>
       </c>
       <c r="S13">
-        <v>0.06707559527630851</v>
+        <v>0.02079522995650828</v>
       </c>
       <c r="T13">
-        <v>0.08290064433688295</v>
+        <v>0.02604179698788086</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.866044666666666</v>
+        <v>5.274651666666667</v>
       </c>
       <c r="H14">
-        <v>17.598134</v>
+        <v>15.823955</v>
       </c>
       <c r="I14">
-        <v>0.1704026329959644</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="J14">
-        <v>0.1945353235065849</v>
+        <v>0.1824129002437912</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.0966175</v>
+        <v>1.4267785</v>
       </c>
       <c r="N14">
-        <v>2.193235</v>
+        <v>2.853557</v>
       </c>
       <c r="O14">
-        <v>0.134463227951262</v>
+        <v>0.2116269459686076</v>
       </c>
       <c r="P14">
-        <v>0.09704730369927428</v>
+        <v>0.1575007669281379</v>
       </c>
       <c r="Q14">
-        <v>6.432807237248333</v>
+        <v>7.525759592989167</v>
       </c>
       <c r="R14">
-        <v>38.59684342349</v>
+        <v>45.154557557935</v>
       </c>
       <c r="S14">
-        <v>0.0229128880840316</v>
+        <v>0.03441297813538083</v>
       </c>
       <c r="T14">
-        <v>0.01887912862058012</v>
+        <v>0.02873017168598302</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.866044666666666</v>
+        <v>5.274651666666667</v>
       </c>
       <c r="H15">
-        <v>17.598134</v>
+        <v>15.823955</v>
       </c>
       <c r="I15">
-        <v>0.1704026329959644</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="J15">
-        <v>0.1945353235065849</v>
+        <v>0.1824129002437912</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7874356666666668</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N15">
         <v>2.362307</v>
       </c>
       <c r="O15">
-        <v>0.09655248210424687</v>
+        <v>0.1167964090315499</v>
       </c>
       <c r="P15">
-        <v>0.104528481836156</v>
+        <v>0.1303864489897026</v>
       </c>
       <c r="Q15">
-        <v>4.619132792793112</v>
+        <v>4.153448851576111</v>
       </c>
       <c r="R15">
-        <v>41.572195135138</v>
+        <v>37.381039664185</v>
       </c>
       <c r="S15">
-        <v>0.0164527971728594</v>
+        <v>0.01899244092900126</v>
       </c>
       <c r="T15">
-        <v>0.02033448202964879</v>
+        <v>0.02378417031270078</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.866044666666666</v>
+        <v>5.274651666666667</v>
       </c>
       <c r="H16">
-        <v>17.598134</v>
+        <v>15.823955</v>
       </c>
       <c r="I16">
-        <v>0.1704026329959644</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="J16">
-        <v>0.1945353235065849</v>
+        <v>0.1824129002437912</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.449806</v>
+        <v>1.386254666666667</v>
       </c>
       <c r="N16">
-        <v>4.349418</v>
+        <v>4.158764</v>
       </c>
       <c r="O16">
-        <v>0.177769910349878</v>
+        <v>0.2056162476806293</v>
       </c>
       <c r="P16">
-        <v>0.1924551129090545</v>
+        <v>0.2295410673321509</v>
       </c>
       <c r="Q16">
-        <v>8.504626754001333</v>
+        <v>7.312010487957778</v>
       </c>
       <c r="R16">
-        <v>76.541640786012</v>
+        <v>65.80809439162</v>
       </c>
       <c r="S16">
-        <v>0.03029246079107575</v>
+        <v>0.03343556938520565</v>
       </c>
       <c r="T16">
-        <v>0.03743931765025924</v>
+        <v>0.04187125181711299</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.866044666666666</v>
+        <v>5.274651666666667</v>
       </c>
       <c r="H17">
-        <v>17.598134</v>
+        <v>15.823955</v>
       </c>
       <c r="I17">
-        <v>0.1704026329959644</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="J17">
-        <v>0.1945353235065849</v>
+        <v>0.1824129002437912</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7702925</v>
+        <v>0.6813404999999999</v>
       </c>
       <c r="N17">
-        <v>1.540585</v>
+        <v>1.362681</v>
       </c>
       <c r="O17">
-        <v>0.09445044969339579</v>
+        <v>0.1010598415799818</v>
       </c>
       <c r="P17">
-        <v>0.06816853659983835</v>
+        <v>0.07521255141509417</v>
       </c>
       <c r="Q17">
-        <v>4.518570211398333</v>
+        <v>3.5938338038925</v>
       </c>
       <c r="R17">
-        <v>27.11142126839</v>
+        <v>21.563002823355</v>
       </c>
       <c r="S17">
-        <v>0.01609460531540752</v>
+        <v>0.01643349386695232</v>
       </c>
       <c r="T17">
-        <v>0.01326118832042003</v>
+        <v>0.01371973963836259</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.866044666666666</v>
+        <v>5.274651666666667</v>
       </c>
       <c r="H18">
-        <v>17.598134</v>
+        <v>15.823955</v>
       </c>
       <c r="I18">
-        <v>0.1704026329959644</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="J18">
-        <v>0.1945353235065849</v>
+        <v>0.1824129002437912</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.4834026666666666</v>
+        <v>1.598499</v>
       </c>
       <c r="N18">
-        <v>1.450208</v>
+        <v>4.795497</v>
       </c>
       <c r="O18">
-        <v>0.05927306737330738</v>
+        <v>0.23709739213471</v>
       </c>
       <c r="P18">
-        <v>0.06416949218990083</v>
+        <v>0.2646852525818074</v>
       </c>
       <c r="Q18">
-        <v>2.835661634652444</v>
+        <v>8.431525414515001</v>
       </c>
       <c r="R18">
-        <v>25.520954711872</v>
+        <v>75.88372873063501</v>
       </c>
       <c r="S18">
-        <v>0.01010028674615877</v>
+        <v>0.03855476595451089</v>
       </c>
       <c r="T18">
-        <v>0.01248323292241563</v>
+        <v>0.04828200457520791</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.866044666666666</v>
+        <v>5.274651666666667</v>
       </c>
       <c r="H19">
-        <v>17.598134</v>
+        <v>15.823955</v>
       </c>
       <c r="I19">
-        <v>0.1704026329959644</v>
+        <v>0.162611514227898</v>
       </c>
       <c r="J19">
-        <v>0.1945353235065849</v>
+        <v>0.1824129002437912</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.567965333333333</v>
+        <v>0.8616426666666667</v>
       </c>
       <c r="N19">
-        <v>10.703896</v>
+        <v>2.584928</v>
       </c>
       <c r="O19">
-        <v>0.43749086252791</v>
+        <v>0.1278031636045214</v>
       </c>
       <c r="P19">
-        <v>0.4736310727657762</v>
+        <v>0.142673912753107</v>
       </c>
       <c r="Q19">
-        <v>20.92984401445155</v>
+        <v>4.544864927804445</v>
       </c>
       <c r="R19">
-        <v>188.368596130064</v>
+        <v>40.90378435024001</v>
       </c>
       <c r="S19">
-        <v>0.07454959488643137</v>
+        <v>0.020782265956847</v>
       </c>
       <c r="T19">
-        <v>0.09213797396326112</v>
+        <v>0.02602556221442387</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.9025095</v>
+        <v>5.865133</v>
       </c>
       <c r="H20">
-        <v>11.805019</v>
+        <v>11.730266</v>
       </c>
       <c r="I20">
-        <v>0.1714618993270014</v>
+        <v>0.1808153824270886</v>
       </c>
       <c r="J20">
-        <v>0.1304964032076572</v>
+        <v>0.1352223158932856</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.0966175</v>
+        <v>1.4267785</v>
       </c>
       <c r="N20">
-        <v>2.193235</v>
+        <v>2.853557</v>
       </c>
       <c r="O20">
-        <v>0.134463227951262</v>
+        <v>0.2116269459686076</v>
       </c>
       <c r="P20">
-        <v>0.09704730369927428</v>
+        <v>0.1575007669281379</v>
       </c>
       <c r="Q20">
-        <v>6.47279521161625</v>
+        <v>8.368245664040501</v>
       </c>
       <c r="R20">
-        <v>25.891180846465</v>
+        <v>33.472982656162</v>
       </c>
       <c r="S20">
-        <v>0.02305532045416292</v>
+        <v>0.03826540716719061</v>
       </c>
       <c r="T20">
-        <v>0.01266432407375646</v>
+        <v>0.0212976184589914</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.9025095</v>
+        <v>5.865133</v>
       </c>
       <c r="H21">
-        <v>11.805019</v>
+        <v>11.730266</v>
       </c>
       <c r="I21">
-        <v>0.1714618993270014</v>
+        <v>0.1808153824270886</v>
       </c>
       <c r="J21">
-        <v>0.1304964032076572</v>
+        <v>0.1352223158932856</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.7874356666666668</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N21">
         <v>2.362307</v>
       </c>
       <c r="O21">
-        <v>0.09655248210424687</v>
+        <v>0.1167964090315499</v>
       </c>
       <c r="P21">
-        <v>0.104528481836156</v>
+        <v>0.1303864489897026</v>
       </c>
       <c r="Q21">
-        <v>4.647846503138834</v>
+        <v>4.618414913943667</v>
       </c>
       <c r="R21">
-        <v>27.887079018833</v>
+        <v>27.710489483662</v>
       </c>
       <c r="S21">
-        <v>0.01655507196633048</v>
+        <v>0.02111858736515036</v>
       </c>
       <c r="T21">
-        <v>0.01364059091237529</v>
+        <v>0.01763115759348933</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.9025095</v>
+        <v>5.865133</v>
       </c>
       <c r="H22">
-        <v>11.805019</v>
+        <v>11.730266</v>
       </c>
       <c r="I22">
-        <v>0.1714618993270014</v>
+        <v>0.1808153824270886</v>
       </c>
       <c r="J22">
-        <v>0.1304964032076572</v>
+        <v>0.1352223158932856</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.449806</v>
+        <v>1.386254666666667</v>
       </c>
       <c r="N22">
-        <v>4.349418</v>
+        <v>4.158764</v>
       </c>
       <c r="O22">
-        <v>0.177769910349878</v>
+        <v>0.2056162476806293</v>
       </c>
       <c r="P22">
-        <v>0.1924551129090545</v>
+        <v>0.2295410673321509</v>
       </c>
       <c r="Q22">
-        <v>8.557493688156999</v>
+        <v>8.130567991870667</v>
       </c>
       <c r="R22">
-        <v>51.344962128942</v>
+        <v>48.783407951224</v>
       </c>
       <c r="S22">
-        <v>0.03048076647178084</v>
+        <v>0.03717858045759597</v>
       </c>
       <c r="T22">
-        <v>0.02511470001355517</v>
+        <v>0.03103907471727004</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.9025095</v>
+        <v>5.865133</v>
       </c>
       <c r="H23">
-        <v>11.805019</v>
+        <v>11.730266</v>
       </c>
       <c r="I23">
-        <v>0.1714618993270014</v>
+        <v>0.1808153824270886</v>
       </c>
       <c r="J23">
-        <v>0.1304964032076572</v>
+        <v>0.1352223158932856</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7702925</v>
+        <v>0.6813404999999999</v>
       </c>
       <c r="N23">
-        <v>1.540585</v>
+        <v>1.362681</v>
       </c>
       <c r="O23">
-        <v>0.09445044969339579</v>
+        <v>0.1010598415799818</v>
       </c>
       <c r="P23">
-        <v>0.06816853659983835</v>
+        <v>0.07521255141509417</v>
       </c>
       <c r="Q23">
-        <v>4.546658799028751</v>
+        <v>3.9961526507865</v>
       </c>
       <c r="R23">
-        <v>18.186635196115</v>
+        <v>15.984610603146</v>
       </c>
       <c r="S23">
-        <v>0.01619465349671904</v>
+        <v>0.0182731739033054</v>
       </c>
       <c r="T23">
-        <v>0.008895748838208444</v>
+        <v>0.01017041538659185</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.9025095</v>
+        <v>5.865133</v>
       </c>
       <c r="H24">
-        <v>11.805019</v>
+        <v>11.730266</v>
       </c>
       <c r="I24">
-        <v>0.1714618993270014</v>
+        <v>0.1808153824270886</v>
       </c>
       <c r="J24">
-        <v>0.1304964032076572</v>
+        <v>0.1352223158932856</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.4834026666666666</v>
+        <v>1.598499</v>
       </c>
       <c r="N24">
-        <v>1.450208</v>
+        <v>4.795497</v>
       </c>
       <c r="O24">
-        <v>0.05927306737330738</v>
+        <v>0.23709739213471</v>
       </c>
       <c r="P24">
-        <v>0.06416949218990083</v>
+        <v>0.2646852525818074</v>
       </c>
       <c r="Q24">
-        <v>2.853288832325333</v>
+        <v>9.375409235367002</v>
       </c>
       <c r="R24">
-        <v>17.119732993952</v>
+        <v>56.252455412202</v>
       </c>
       <c r="S24">
-        <v>0.0101630727107646</v>
+        <v>0.04287085563130298</v>
       </c>
       <c r="T24">
-        <v>0.008373887926443909</v>
+        <v>0.03579135283691124</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.9025095</v>
+        <v>5.865133</v>
       </c>
       <c r="H25">
-        <v>11.805019</v>
+        <v>11.730266</v>
       </c>
       <c r="I25">
-        <v>0.1714618993270014</v>
+        <v>0.1808153824270886</v>
       </c>
       <c r="J25">
-        <v>0.1304964032076572</v>
+        <v>0.1352223158932856</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.567965333333333</v>
+        <v>0.8616426666666667</v>
       </c>
       <c r="N25">
-        <v>10.703896</v>
+        <v>2.584928</v>
       </c>
       <c r="O25">
-        <v>0.43749086252791</v>
+        <v>0.1278031636045214</v>
       </c>
       <c r="P25">
-        <v>0.4736310727657762</v>
+        <v>0.142673912753107</v>
       </c>
       <c r="Q25">
-        <v>21.05994927567067</v>
+        <v>5.053648838474667</v>
       </c>
       <c r="R25">
-        <v>126.359695654024</v>
+        <v>30.321893030848</v>
       </c>
       <c r="S25">
-        <v>0.0750130142272435</v>
+        <v>0.02310877790254331</v>
       </c>
       <c r="T25">
-        <v>0.06180715144331797</v>
+        <v>0.0192926969000317</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.426464</v>
+        <v>5.310348</v>
       </c>
       <c r="H26">
-        <v>10.279392</v>
+        <v>15.931044</v>
       </c>
       <c r="I26">
-        <v>0.09953529518514022</v>
+        <v>0.1637119916020532</v>
       </c>
       <c r="J26">
-        <v>0.1136316411825823</v>
+        <v>0.183647383979002</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.0966175</v>
+        <v>1.4267785</v>
       </c>
       <c r="N26">
-        <v>2.193235</v>
+        <v>2.853557</v>
       </c>
       <c r="O26">
-        <v>0.134463227951262</v>
+        <v>0.2116269459686076</v>
       </c>
       <c r="P26">
-        <v>0.09704730369927428</v>
+        <v>0.1575007669281379</v>
       </c>
       <c r="Q26">
-        <v>3.75752038552</v>
+        <v>7.576690353918</v>
       </c>
       <c r="R26">
-        <v>22.54512231312</v>
+        <v>45.460142123508</v>
       </c>
       <c r="S26">
-        <v>0.01338383708567566</v>
+        <v>0.03464586880118086</v>
       </c>
       <c r="T26">
-        <v>0.01102764439169302</v>
+        <v>0.02892460382103903</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.426464</v>
+        <v>5.310348</v>
       </c>
       <c r="H27">
-        <v>10.279392</v>
+        <v>15.931044</v>
       </c>
       <c r="I27">
-        <v>0.09953529518514022</v>
+        <v>0.1637119916020532</v>
       </c>
       <c r="J27">
-        <v>0.1136316411825823</v>
+        <v>0.183647383979002</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.7874356666666668</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N27">
         <v>2.362307</v>
       </c>
       <c r="O27">
-        <v>0.09655248210424687</v>
+        <v>0.1167964090315499</v>
       </c>
       <c r="P27">
-        <v>0.104528481836156</v>
+        <v>0.1303864489897026</v>
       </c>
       <c r="Q27">
-        <v>2.698119964149333</v>
+        <v>4.181557417612</v>
       </c>
       <c r="R27">
-        <v>24.283079677344</v>
+        <v>37.634016758508</v>
       </c>
       <c r="S27">
-        <v>0.009610379807104181</v>
+        <v>0.01912097273452307</v>
       </c>
       <c r="T27">
-        <v>0.01187774294136614</v>
+        <v>0.02394513026327046</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.426464</v>
+        <v>5.310348</v>
       </c>
       <c r="H28">
-        <v>10.279392</v>
+        <v>15.931044</v>
       </c>
       <c r="I28">
-        <v>0.09953529518514022</v>
+        <v>0.1637119916020532</v>
       </c>
       <c r="J28">
-        <v>0.1136316411825823</v>
+        <v>0.183647383979002</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.449806</v>
+        <v>1.386254666666667</v>
       </c>
       <c r="N28">
-        <v>4.349418</v>
+        <v>4.158764</v>
       </c>
       <c r="O28">
-        <v>0.177769910349878</v>
+        <v>0.2056162476806293</v>
       </c>
       <c r="P28">
-        <v>0.1924551129090545</v>
+        <v>0.2295410673321509</v>
       </c>
       <c r="Q28">
-        <v>4.967708065984</v>
+        <v>7.361494696624</v>
       </c>
       <c r="R28">
-        <v>44.709372593856</v>
+        <v>66.25345226961599</v>
       </c>
       <c r="S28">
-        <v>0.01769438050171102</v>
+        <v>0.03366184541353689</v>
       </c>
       <c r="T28">
-        <v>0.02186899033383503</v>
+        <v>0.04215461653129746</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.426464</v>
+        <v>5.310348</v>
       </c>
       <c r="H29">
-        <v>10.279392</v>
+        <v>15.931044</v>
       </c>
       <c r="I29">
-        <v>0.09953529518514022</v>
+        <v>0.1637119916020532</v>
       </c>
       <c r="J29">
-        <v>0.1136316411825823</v>
+        <v>0.183647383979002</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7702925</v>
+        <v>0.6813404999999999</v>
       </c>
       <c r="N29">
-        <v>1.540585</v>
+        <v>1.362681</v>
       </c>
       <c r="O29">
-        <v>0.09445044969339579</v>
+        <v>0.1010598415799818</v>
       </c>
       <c r="P29">
-        <v>0.06816853659983835</v>
+        <v>0.07521255141509417</v>
       </c>
       <c r="Q29">
-        <v>2.63937952072</v>
+        <v>3.618155161494</v>
       </c>
       <c r="R29">
-        <v>15.83627712432</v>
+        <v>21.708930968964</v>
       </c>
       <c r="S29">
-        <v>0.009401153390601387</v>
+        <v>0.01654470793604681</v>
       </c>
       <c r="T29">
-        <v>0.007746102690854557</v>
+        <v>0.01381258830976823</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.426464</v>
+        <v>5.310348</v>
       </c>
       <c r="H30">
-        <v>10.279392</v>
+        <v>15.931044</v>
       </c>
       <c r="I30">
-        <v>0.09953529518514022</v>
+        <v>0.1637119916020532</v>
       </c>
       <c r="J30">
-        <v>0.1136316411825823</v>
+        <v>0.183647383979002</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4834026666666666</v>
+        <v>1.598499</v>
       </c>
       <c r="N30">
-        <v>1.450208</v>
+        <v>4.795497</v>
       </c>
       <c r="O30">
-        <v>0.05927306737330738</v>
+        <v>0.23709739213471</v>
       </c>
       <c r="P30">
-        <v>0.06416949218990083</v>
+        <v>0.2646852525818074</v>
       </c>
       <c r="Q30">
-        <v>1.656361834837333</v>
+        <v>8.488585967652002</v>
       </c>
       <c r="R30">
-        <v>14.907256513536</v>
+        <v>76.397273708868</v>
       </c>
       <c r="S30">
-        <v>0.005899762257530854</v>
+        <v>0.03881568627002636</v>
       </c>
       <c r="T30">
-        <v>0.007291684711391326</v>
+        <v>0.04860875421447031</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.426464</v>
+        <v>5.310348</v>
       </c>
       <c r="H31">
-        <v>10.279392</v>
+        <v>15.931044</v>
       </c>
       <c r="I31">
-        <v>0.09953529518514022</v>
+        <v>0.1637119916020532</v>
       </c>
       <c r="J31">
-        <v>0.1136316411825823</v>
+        <v>0.183647383979002</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.567965333333333</v>
+        <v>0.8616426666666667</v>
       </c>
       <c r="N31">
-        <v>10.703896</v>
+        <v>2.584928</v>
       </c>
       <c r="O31">
-        <v>0.43749086252791</v>
+        <v>0.1278031636045214</v>
       </c>
       <c r="P31">
-        <v>0.4736310727657762</v>
+        <v>0.142673912753107</v>
       </c>
       <c r="Q31">
-        <v>12.22550476791467</v>
+        <v>4.575622411648</v>
       </c>
       <c r="R31">
-        <v>110.029542911232</v>
+        <v>41.180601704832</v>
       </c>
       <c r="S31">
-        <v>0.04354578214251712</v>
+        <v>0.02092291044673925</v>
       </c>
       <c r="T31">
-        <v>0.05381947611344218</v>
+        <v>0.02620169083915646</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.042732666666666</v>
+        <v>6.010791999999999</v>
       </c>
       <c r="H32">
-        <v>21.128198</v>
+        <v>18.032376</v>
       </c>
       <c r="I32">
-        <v>0.2045842229443229</v>
+        <v>0.1853058838000238</v>
       </c>
       <c r="J32">
-        <v>0.2335577643084875</v>
+        <v>0.2078707885889801</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.0966175</v>
+        <v>1.4267785</v>
       </c>
       <c r="N32">
-        <v>2.193235</v>
+        <v>2.853557</v>
       </c>
       <c r="O32">
-        <v>0.134463227951262</v>
+        <v>0.2116269459686076</v>
       </c>
       <c r="P32">
-        <v>0.09704730369927428</v>
+        <v>0.1575007669281379</v>
       </c>
       <c r="Q32">
-        <v>7.723183890088333</v>
+        <v>8.576068793571999</v>
       </c>
       <c r="R32">
-        <v>46.33910334053</v>
+        <v>51.456412761432</v>
       </c>
       <c r="S32">
-        <v>0.02750905500499429</v>
+        <v>0.03921571825861271</v>
       </c>
       <c r="T32">
-        <v>0.02266615128416931</v>
+        <v>0.03273980862472117</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.042732666666666</v>
+        <v>6.010791999999999</v>
       </c>
       <c r="H33">
-        <v>21.128198</v>
+        <v>18.032376</v>
       </c>
       <c r="I33">
-        <v>0.2045842229443229</v>
+        <v>0.1853058838000238</v>
       </c>
       <c r="J33">
-        <v>0.2335577643084875</v>
+        <v>0.2078707885889801</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.7874356666666668</v>
+        <v>0.7874356666666666</v>
       </c>
       <c r="N33">
         <v>2.362307</v>
       </c>
       <c r="O33">
-        <v>0.09655248210424687</v>
+        <v>0.1167964090315499</v>
       </c>
       <c r="P33">
-        <v>0.104528481836156</v>
+        <v>0.1303864489897026</v>
       </c>
       <c r="Q33">
-        <v>5.545698892531778</v>
+        <v>4.733112005714666</v>
       </c>
       <c r="R33">
-        <v>49.911290032786</v>
+        <v>42.598008051432</v>
       </c>
       <c r="S33">
-        <v>0.01975311452464299</v>
+        <v>0.02164306180026043</v>
       </c>
       <c r="T33">
-        <v>0.02441343852421294</v>
+        <v>0.02710353397280629</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.042732666666666</v>
+        <v>6.010791999999999</v>
       </c>
       <c r="H34">
-        <v>21.128198</v>
+        <v>18.032376</v>
       </c>
       <c r="I34">
-        <v>0.2045842229443229</v>
+        <v>0.1853058838000238</v>
       </c>
       <c r="J34">
-        <v>0.2335577643084875</v>
+        <v>0.2078707885889801</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.449806</v>
+        <v>1.386254666666667</v>
       </c>
       <c r="N34">
-        <v>4.349418</v>
+        <v>4.158764</v>
       </c>
       <c r="O34">
-        <v>0.177769910349878</v>
+        <v>0.2056162476806293</v>
       </c>
       <c r="P34">
-        <v>0.1924551129090545</v>
+        <v>0.2295410673321509</v>
       </c>
       <c r="Q34">
-        <v>10.21059607652933</v>
+        <v>8.332488460362665</v>
       </c>
       <c r="R34">
-        <v>91.89536468876399</v>
+        <v>74.99239614326399</v>
       </c>
       <c r="S34">
-        <v>0.03636891897181172</v>
+        <v>0.03810190050010361</v>
       </c>
       <c r="T34">
-        <v>0.0449493859007763</v>
+        <v>0.04771488267989037</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.042732666666666</v>
+        <v>6.010791999999999</v>
       </c>
       <c r="H35">
-        <v>21.128198</v>
+        <v>18.032376</v>
       </c>
       <c r="I35">
-        <v>0.2045842229443229</v>
+        <v>0.1853058838000238</v>
       </c>
       <c r="J35">
-        <v>0.2335577643084875</v>
+        <v>0.2078707885889801</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.7702925</v>
+        <v>0.6813404999999999</v>
       </c>
       <c r="N35">
-        <v>1.540585</v>
+        <v>1.362681</v>
       </c>
       <c r="O35">
-        <v>0.09445044969339579</v>
+        <v>0.1010598415799818</v>
       </c>
       <c r="P35">
-        <v>0.06816853659983835</v>
+        <v>0.07521255141509417</v>
       </c>
       <c r="Q35">
-        <v>5.424964152638333</v>
+        <v>4.095396026675999</v>
       </c>
       <c r="R35">
-        <v>32.54978491583</v>
+        <v>24.572376160056</v>
       </c>
       <c r="S35">
-        <v>0.01932307185726524</v>
+        <v>0.01872698326066892</v>
       </c>
       <c r="T35">
-        <v>0.01592129100443955</v>
+        <v>0.01563449237444483</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.042732666666666</v>
+        <v>6.010791999999999</v>
       </c>
       <c r="H36">
-        <v>21.128198</v>
+        <v>18.032376</v>
       </c>
       <c r="I36">
-        <v>0.2045842229443229</v>
+        <v>0.1853058838000238</v>
       </c>
       <c r="J36">
-        <v>0.2335577643084875</v>
+        <v>0.2078707885889801</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.4834026666666666</v>
+        <v>1.598499</v>
       </c>
       <c r="N36">
-        <v>1.450208</v>
+        <v>4.795497</v>
       </c>
       <c r="O36">
-        <v>0.05927306737330738</v>
+        <v>0.23709739213471</v>
       </c>
       <c r="P36">
-        <v>0.06416949218990083</v>
+        <v>0.2646852525818074</v>
       </c>
       <c r="Q36">
-        <v>3.40447575168711</v>
+        <v>9.608245001207999</v>
       </c>
       <c r="R36">
-        <v>30.640281765184</v>
+        <v>86.474205010872</v>
       </c>
       <c r="S36">
-        <v>0.01212633443009459</v>
+        <v>0.04393554179620324</v>
       </c>
       <c r="T36">
-        <v>0.01498728313268419</v>
+        <v>0.05502033218205368</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.042732666666666</v>
+        <v>6.010791999999999</v>
       </c>
       <c r="H37">
-        <v>21.128198</v>
+        <v>18.032376</v>
       </c>
       <c r="I37">
-        <v>0.2045842229443229</v>
+        <v>0.1853058838000238</v>
       </c>
       <c r="J37">
-        <v>0.2335577643084875</v>
+        <v>0.2078707885889801</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.567965333333333</v>
+        <v>0.8616426666666667</v>
       </c>
       <c r="N37">
-        <v>10.703896</v>
+        <v>2.584928</v>
       </c>
       <c r="O37">
-        <v>0.43749086252791</v>
+        <v>0.1278031636045214</v>
       </c>
       <c r="P37">
-        <v>0.4736310727657762</v>
+        <v>0.142673912753107</v>
       </c>
       <c r="Q37">
-        <v>25.12822600660089</v>
+        <v>5.179154847658666</v>
       </c>
       <c r="R37">
-        <v>226.154034059408</v>
+        <v>46.612393628928</v>
       </c>
       <c r="S37">
-        <v>0.08950372815551406</v>
+        <v>0.02368267818417488</v>
       </c>
       <c r="T37">
-        <v>0.1106202144622052</v>
+        <v>0.02965773875506369</v>
       </c>
     </row>
   </sheetData>
